--- a/swtk/Table/rooms.xlsx
+++ b/swtk/Table/rooms.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLKU\Lecture\swtk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B012F-3D8F-473D-90BA-1418C6D1E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B31A45-3A92-4486-AC62-9128C32F7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5230" yWindow="970" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1학년" sheetId="1" r:id="rId1"/>
-    <sheet name="2학년" sheetId="2" r:id="rId2"/>
-    <sheet name="3학년" sheetId="4" r:id="rId3"/>
+    <sheet name="423" sheetId="1" r:id="rId1"/>
+    <sheet name="424" sheetId="2" r:id="rId2"/>
+    <sheet name="425" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,15 +44,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7777</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888</t>
+    <t>점심시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진탐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>___________</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -100,11 +108,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -378,10 +396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -407,57 +425,74 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
-        <v>7777</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <v>7777</v>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
-        <v>9999</v>
-      </c>
-      <c r="B8" s="3">
-        <v>9999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9999</v>
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
-        <v>9999</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9999</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9999</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="3">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="3">
-        <v>8888</v>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -468,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0964AB35-D3B4-488A-BD4E-1C0699E72EAD}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -500,12 +535,12 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -544,13 +579,30 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -562,10 +614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DD427F-DDA9-4B7B-A966-231797E4210B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -591,13 +643,13 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
-        <v>7777</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <v>7777</v>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -635,13 +687,30 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
